--- a/数据整理/stocks/A股/创业板/300119-瑞普生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300119-瑞普生物.xlsx
@@ -451,491 +451,661 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5524</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002463</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信价值红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>006160</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>博道启航混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>91.31</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1.56</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>006161</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>博道启航混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>91.31</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1.56</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007126</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博道远航混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005404</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信价值红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007127</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博道远航混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001195</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信农业产业股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>88.44</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>164403</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519975</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长信量化中小盘股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005457</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>景顺长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009005</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>创金合信鑫祺混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>24.84</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009006</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>创金合信鑫祺混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>24.84</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007831</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博道伍佰智航股票A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>92.08</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007832</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博道伍佰智航股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>92.08</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004900</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>财通资管鑫锐回报混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>21.08</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004901</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>财通资管鑫锐回报混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>21.08</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002463</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>创金合信价值红利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>36.04</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005404</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>创金合信价值红利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>36.04</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -945,7 +1115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,15 +1136,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -986,25 +1166,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003293</t>
+          <t>160926</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达科瑞灵活配置混合</t>
+          <t>大成创业板两年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82.37</t>
+          <t>32.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0544</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003803</t>
+          <t>010389</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安新丰利灵活配置混合A</t>
+          <t>易方达科益混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.50</t>
+          <t>28.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9775</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003804</t>
+          <t>001195</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安新丰利灵活配置混合C</t>
+          <t>工银瑞信农业产业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.50</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6991</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005632</t>
+          <t>519019</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华量化先锋混合</t>
+          <t>大成景阳领先混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.77</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4343</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000551</t>
+          <t>040002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>信诚幸福消费混合</t>
+          <t>华安MSCI中国A股指数增强</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>84.90</t>
+          <t>20.04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4068</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>460009</t>
+          <t>003293</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合A</t>
+          <t>易方达科瑞灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>11.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3495</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010246</t>
+          <t>519983</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合C</t>
+          <t>长信量化先锋混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>10.71</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010389</t>
+          <t>001763</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达科益混合A</t>
+          <t>广发多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>57.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1937</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010390</t>
+          <t>009798</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达科益混合C</t>
+          <t>大成创业板两年定期开放混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001195</t>
+          <t>110012</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>工银瑞信农业产业股票</t>
+          <t>易方达科汇灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.60</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>040002</t>
+          <t>090016</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华安MSCI中国A股指数增强</t>
+          <t>大成消费主题混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>090016</t>
+          <t>519975</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>大成消费主题混合</t>
+          <t>长信量化中小盘股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>110012</t>
+          <t>460009</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>易方达科汇灵活配置混合</t>
+          <t>华泰柏瑞量化先行混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>79.22</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>519019</t>
+          <t>000551</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大成景阳领先混合</t>
+          <t>信诚幸福消费混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.12</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001763</t>
+          <t>003803</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>广发多策略灵活配置混合</t>
+          <t>华安新丰利灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>57.89</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>519975</t>
+          <t>004900</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>长信量化中小盘股票</t>
+          <t>财通资管鑫锐回报混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1434,25 +1774,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>519983</t>
+          <t>003004</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>长信量化先锋混合A</t>
+          <t>招商睿祥定期开放混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>004221</t>
+          <t>002319</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>长信量化先锋混合C</t>
+          <t>大成一带一路灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>160926</t>
+          <t>005632</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>大成创业板两年定期开放混合A</t>
+          <t>鹏华量化先锋混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009798</t>
+          <t>010390</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>大成创业板两年定期开放混合C</t>
+          <t>易方达科益混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>002319</t>
+          <t>004901</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>大成一带一路灵活配置混合</t>
+          <t>财通资管鑫锐回报混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>89.80</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>003004</t>
+          <t>003804</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>招商睿祥定期开放混合</t>
+          <t>华安新丰利灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>46.37</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>004900</t>
+          <t>004221</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合A</t>
+          <t>长信量化先锋混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>33.38</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1630,26 +2040,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>004901</t>
+          <t>010246</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>33.38</t>
-        </is>
-      </c>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300119-瑞普生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300119-瑞普生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2048,7 +2049,6 @@
           <t>华泰柏瑞量化先行混合C</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>91.02</t>
@@ -2064,6 +2064,974 @@
       </c>
       <c r="H25" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0258</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8456</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1940</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>57.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0397</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7973</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>59.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7836</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4299</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3913</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3886</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3849</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3069</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>96.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300119-瑞普生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300119-瑞普生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3037,4 +3038,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1548</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0886</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9706</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6487</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4750</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3095</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>56.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>44.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>44.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>44.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300119-瑞普生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300119-瑞普生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3512,4 +3513,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300119-瑞普生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300119-瑞普生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3521,7 +3522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3532,17 +3533,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3552,14 +3573,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.8</v>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1005</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3568,14 +3611,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.5</v>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6618</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3584,14 +3649,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.11</v>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4594</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3600,13 +3687,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2323</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300119-瑞普生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300119-瑞普生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3844,7 +3845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3855,17 +3856,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3875,14 +3896,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.49</v>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3430</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3891,14 +3934,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.8</v>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3907,14 +3972,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.5</v>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3923,14 +4010,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>5.11</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="6">
@@ -3939,13 +4148,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300119-瑞普生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300119-瑞普生物.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4053,7 +4054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4064,17 +4065,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4084,14 +4105,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.36</v>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4100,14 +4143,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.49</v>
       </c>
     </row>
     <row r="4">
@@ -4116,14 +4181,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>6.8</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="5">
@@ -4132,14 +4303,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>12.5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="6">
@@ -4148,14 +4319,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>5.11</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="7">
@@ -4164,13 +4335,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300119-瑞普生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300119-瑞普生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2.36</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.49</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>6.8</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>12.5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>5.11</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>16</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.54</v>
       </c>
     </row>
@@ -600,6 +617,704 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4210</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银主题策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3408</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015386</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006568</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安行业领先混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +1484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -977,7 +1692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1299,7 +2014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1766,974 +2481,6 @@
       </c>
       <c r="H12" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008099</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发价值领先混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>81.33</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.0258</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160926</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成创业板两年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>39.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.16</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.8456</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005233</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发睿毅领先混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>26.07</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>63.86</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.1940</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>270001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发聚富混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>25.42</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>57.92</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.0397</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010389</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达科益混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>23.52</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>77.65</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7973</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001763</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>17.53</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>59.02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.7836</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519019</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成景阳领先混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4299</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010371</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成成长进取混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10.78</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3913</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001195</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银瑞信农业产业股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.11</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3886</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003293</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达科瑞灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>12.66</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>71.15</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3849</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009798</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成创业板两年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>87.16</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3069</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>110012</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>易方达科汇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>70.02</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1435</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008988</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>大成科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1211</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010372</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成成长进取混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1209</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>159865</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国泰中证畜牧养殖ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>98.45</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1074</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>090016</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>大成消费主题混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0987</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>159867</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏华中证畜牧养殖ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>97.08</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0959</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>000551</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>信诚幸福消费混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>88.82</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0606</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008989</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>大成科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0588</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>516760</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>平安中证畜牧养殖ETF</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>96.02</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0392</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002319</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>大成一带一路灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>85.38</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0238</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>010390</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>易方达科益混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>77.65</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>516670</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>招商中证畜牧养殖ETF</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>96.88</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005128</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华夏永康添福混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>26.52</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2798,36 +2545,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160926</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成创业板两年定期开放混合A</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.05</t>
+          <t>81.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>91.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0544</t>
+          <t>4.0258</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2836,36 +2583,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010389</t>
+          <t>160926</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达科益混合A</t>
+          <t>大成创业板两年定期开放混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.09</t>
+          <t>39.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>87.16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9775</t>
+          <t>1.8456</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2874,36 +2621,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001195</t>
+          <t>005233</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信农业产业股票</t>
+          <t>广发睿毅领先混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.93</t>
+          <t>26.07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.60</t>
+          <t>63.86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6991</t>
+          <t>1.1940</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2912,36 +2659,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519019</t>
+          <t>270001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成景阳领先混合</t>
+          <t>广发聚富混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>25.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.12</t>
+          <t>57.92</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4343</t>
+          <t>1.0397</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2950,36 +2697,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>040002</t>
+          <t>010389</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安MSCI中国A股指数增强</t>
+          <t>易方达科益混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20.04</t>
+          <t>23.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>77.65</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4068</t>
+          <t>0.7973</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2988,36 +2735,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003293</t>
+          <t>001763</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达科瑞灵活配置混合</t>
+          <t>广发多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.13</t>
+          <t>17.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.37</t>
+          <t>59.02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3495</t>
+          <t>0.7836</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -3026,36 +2773,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519983</t>
+          <t>519019</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长信量化先锋混合A</t>
+          <t>大成景阳领先混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.71</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>92.12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2024</t>
+          <t>0.4299</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -3064,36 +2811,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001763</t>
+          <t>010371</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发多策略灵活配置混合</t>
+          <t>大成成长进取混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>10.78</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>57.89</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1937</t>
+          <t>0.3913</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -3102,36 +2849,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009798</t>
+          <t>001195</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成创业板两年定期开放混合C</t>
+          <t>工银瑞信农业产业股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>91.11</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1754</t>
+          <t>0.3886</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -3140,36 +2887,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>110012</t>
+          <t>003293</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>易方达科汇灵活配置混合</t>
+          <t>易方达科瑞灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>12.66</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>79.22</t>
+          <t>71.15</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1355</t>
+          <t>0.3849</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -3178,36 +2925,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>090016</t>
+          <t>009798</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大成消费主题混合</t>
+          <t>大成创业板两年定期开放混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>87.16</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1011</t>
+          <t>0.3069</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -3216,36 +2963,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>519975</t>
+          <t>110012</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>长信量化中小盘股票</t>
+          <t>易方达科汇灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>70.02</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0658</t>
+          <t>0.1435</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -3254,36 +3001,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>460009</t>
+          <t>008988</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合A</t>
+          <t>大成科技创新混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0628</t>
+          <t>0.1211</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -3292,36 +3039,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000551</t>
+          <t>010372</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>信诚幸福消费混合</t>
+          <t>大成成长进取混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>84.90</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0497</t>
+          <t>0.1209</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -3330,36 +3077,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003803</t>
+          <t>159865</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华安新丰利灵活配置混合A</t>
+          <t>国泰中证畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>21.50</t>
+          <t>98.45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0453</t>
+          <t>0.1074</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -3368,36 +3115,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004900</t>
+          <t>090016</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合A</t>
+          <t>大成消费主题混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>33.38</t>
+          <t>89.50</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0373</t>
+          <t>0.0987</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -3406,36 +3153,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>003004</t>
+          <t>159867</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>招商睿祥定期开放混合</t>
+          <t>鹏华中证畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>46.37</t>
+          <t>97.08</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0257</t>
+          <t>0.0959</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -3444,36 +3191,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002319</t>
+          <t>000551</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>大成一带一路灵活配置混合</t>
+          <t>信诚幸福消费混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>89.80</t>
+          <t>88.82</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0253</t>
+          <t>0.0606</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -3482,32 +3229,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005632</t>
+          <t>008989</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鹏华量化先锋混合</t>
+          <t>大成科技创新混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>92.77</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0248</t>
+          <t>0.0588</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -3520,36 +3267,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010390</t>
+          <t>516760</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>易方达科益混合C</t>
+          <t>平安中证畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>96.02</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0223</t>
+          <t>0.0392</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -3558,36 +3305,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>004901</t>
+          <t>002319</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合C</t>
+          <t>大成一带一路灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>33.38</t>
+          <t>85.38</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0194</t>
+          <t>0.0238</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -3596,32 +3343,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>003804</t>
+          <t>010390</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华安新丰利灵活配置混合C</t>
+          <t>易方达科益混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>21.50</t>
+          <t>77.65</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -3634,36 +3381,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>004221</t>
+          <t>516670</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>长信量化先锋混合C</t>
+          <t>招商中证畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>96.88</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0159</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -3672,29 +3419,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>010246</t>
+          <t>005128</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合C</t>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>26.52</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
       </c>
       <c r="H25" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3703,6 +3457,967 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0544</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9775</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6991</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4343</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安MSCI中国A股指数增强</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4068</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3495</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>57.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1937</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003803</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300119-瑞普生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300119-瑞普生物.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>1.19</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2.36</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>2.49</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>6.8</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>12.5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>5.11</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,694 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>24</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>16</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5524</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002463</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信价值红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005404</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信价值红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1298,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2472</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015963</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015635</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安价值先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006568</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安行业领先混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015964</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015636</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安价值先锋混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1314,7 +2469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1484,7 +2639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1692,7 +2847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2014,7 +3169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2481,974 +3636,6 @@
       </c>
       <c r="H12" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008099</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发价值领先混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>81.33</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.0258</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160926</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成创业板两年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>39.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.16</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.8456</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005233</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发睿毅领先混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>26.07</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>63.86</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.1940</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>270001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发聚富混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>25.42</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>57.92</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.0397</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010389</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达科益混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>23.52</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>77.65</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7973</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001763</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>17.53</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>59.02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.7836</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519019</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成景阳领先混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4299</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010371</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成成长进取混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10.78</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3913</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001195</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银瑞信农业产业股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.11</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3886</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003293</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达科瑞灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>12.66</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>71.15</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3849</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009798</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成创业板两年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>87.16</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3069</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>110012</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>易方达科汇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>70.02</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1435</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008988</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>大成科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1211</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010372</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成成长进取混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1209</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>159865</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国泰中证畜牧养殖ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>98.45</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1074</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>090016</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>大成消费主题混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0987</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>159867</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏华中证畜牧养殖ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>97.08</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0959</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>000551</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>信诚幸福消费混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>88.82</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0606</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008989</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>大成科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0588</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>516760</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>平安中证畜牧养殖ETF</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>96.02</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0392</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002319</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>大成一带一路灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>85.38</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0238</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>010390</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>易方达科益混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>77.65</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>516670</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>招商中证畜牧养殖ETF</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>96.88</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005128</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华夏永康添福混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>26.52</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3513,36 +3700,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160926</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成创业板两年定期开放混合A</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.05</t>
+          <t>81.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>91.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0544</t>
+          <t>4.0258</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3551,36 +3738,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010389</t>
+          <t>160926</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达科益混合A</t>
+          <t>大成创业板两年定期开放混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.09</t>
+          <t>39.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>87.16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9775</t>
+          <t>1.8456</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3589,36 +3776,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001195</t>
+          <t>005233</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信农业产业股票</t>
+          <t>广发睿毅领先混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.93</t>
+          <t>26.07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.60</t>
+          <t>63.86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6991</t>
+          <t>1.1940</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3627,36 +3814,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519019</t>
+          <t>270001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成景阳领先混合</t>
+          <t>广发聚富混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>25.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.12</t>
+          <t>57.92</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4343</t>
+          <t>1.0397</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3665,36 +3852,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>040002</t>
+          <t>010389</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安MSCI中国A股指数增强</t>
+          <t>易方达科益混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20.04</t>
+          <t>23.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>77.65</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4068</t>
+          <t>0.7973</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -3703,36 +3890,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003293</t>
+          <t>001763</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达科瑞灵活配置混合</t>
+          <t>广发多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.13</t>
+          <t>17.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.37</t>
+          <t>59.02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3495</t>
+          <t>0.7836</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -3741,36 +3928,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519983</t>
+          <t>519019</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长信量化先锋混合A</t>
+          <t>大成景阳领先混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.71</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>92.12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2024</t>
+          <t>0.4299</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -3779,36 +3966,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001763</t>
+          <t>010371</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发多策略灵活配置混合</t>
+          <t>大成成长进取混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>10.78</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>57.89</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1937</t>
+          <t>0.3913</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -3817,36 +4004,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009798</t>
+          <t>001195</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成创业板两年定期开放混合C</t>
+          <t>工银瑞信农业产业股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>91.11</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1754</t>
+          <t>0.3886</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -3855,36 +4042,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>110012</t>
+          <t>003293</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>易方达科汇灵活配置混合</t>
+          <t>易方达科瑞灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>12.66</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>79.22</t>
+          <t>71.15</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1355</t>
+          <t>0.3849</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -3893,36 +4080,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>090016</t>
+          <t>009798</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大成消费主题混合</t>
+          <t>大成创业板两年定期开放混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>87.16</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1011</t>
+          <t>0.3069</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -3931,36 +4118,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>519975</t>
+          <t>110012</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>长信量化中小盘股票</t>
+          <t>易方达科汇灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>70.02</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0658</t>
+          <t>0.1435</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -3969,36 +4156,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>460009</t>
+          <t>008988</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合A</t>
+          <t>大成科技创新混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0628</t>
+          <t>0.1211</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -4007,36 +4194,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000551</t>
+          <t>010372</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>信诚幸福消费混合</t>
+          <t>大成成长进取混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>84.90</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0497</t>
+          <t>0.1209</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -4045,36 +4232,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003803</t>
+          <t>159865</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华安新丰利灵活配置混合A</t>
+          <t>国泰中证畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>21.50</t>
+          <t>98.45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0453</t>
+          <t>0.1074</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -4083,36 +4270,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004900</t>
+          <t>090016</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合A</t>
+          <t>大成消费主题混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>33.38</t>
+          <t>89.50</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0373</t>
+          <t>0.0987</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -4121,36 +4308,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>003004</t>
+          <t>159867</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>招商睿祥定期开放混合</t>
+          <t>鹏华中证畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>46.37</t>
+          <t>97.08</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0257</t>
+          <t>0.0959</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -4159,36 +4346,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002319</t>
+          <t>000551</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>大成一带一路灵活配置混合</t>
+          <t>信诚幸福消费混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>89.80</t>
+          <t>88.82</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0253</t>
+          <t>0.0606</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -4197,32 +4384,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005632</t>
+          <t>008989</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鹏华量化先锋混合</t>
+          <t>大成科技创新混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>92.77</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0248</t>
+          <t>0.0588</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -4235,36 +4422,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010390</t>
+          <t>516760</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>易方达科益混合C</t>
+          <t>平安中证畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>96.02</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0223</t>
+          <t>0.0392</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -4273,36 +4460,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>004901</t>
+          <t>002319</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合C</t>
+          <t>大成一带一路灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>33.38</t>
+          <t>85.38</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0194</t>
+          <t>0.0238</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -4311,32 +4498,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>003804</t>
+          <t>010390</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华安新丰利灵活配置混合C</t>
+          <t>易方达科益混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>21.50</t>
+          <t>77.65</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -4349,36 +4536,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>004221</t>
+          <t>516670</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>长信量化先锋混合C</t>
+          <t>招商中证畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>96.88</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0159</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -4387,29 +4574,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>010246</t>
+          <t>005128</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合C</t>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>26.52</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
       </c>
       <c r="H25" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4423,7 +4617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4474,36 +4668,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001195</t>
+          <t>160926</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信农业产业股票</t>
+          <t>大成创业板两年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.21</t>
+          <t>32.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.44</t>
+          <t>89.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5524</t>
+          <t>1.0544</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4512,36 +4706,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>164403</t>
+          <t>010389</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+          <t>易方达科益混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>28.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>77.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2031</t>
+          <t>0.9775</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4550,36 +4744,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002463</t>
+          <t>001195</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信价值红利灵活配置混合A</t>
+          <t>工银瑞信农业产业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>36.04</t>
+          <t>90.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1534</t>
+          <t>0.6991</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4588,36 +4782,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007831</t>
+          <t>519019</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票A</t>
+          <t>大成景阳领先混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.08</t>
+          <t>91.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1087</t>
+          <t>0.4343</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -4626,36 +4820,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009005</t>
+          <t>040002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>创金合信鑫祺混合A</t>
+          <t>华安MSCI中国A股指数增强</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.38</t>
+          <t>20.04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24.84</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1063</t>
+          <t>0.4068</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -4664,36 +4858,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519975</t>
+          <t>003293</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长信量化中小盘股票</t>
+          <t>易方达科瑞灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>11.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>82.37</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0875</t>
+          <t>0.3495</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -4702,36 +4896,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006160</t>
+          <t>519983</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博道启航混合A</t>
+          <t>长信量化先锋混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>10.71</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.31</t>
+          <t>92.31</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0814</t>
+          <t>0.2024</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -4740,36 +4934,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007126</t>
+          <t>001763</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博道远航混合A</t>
+          <t>广发多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.65</t>
+          <t>57.89</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0663</t>
+          <t>0.1937</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -4778,36 +4972,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004900</t>
+          <t>009798</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合A</t>
+          <t>大成创业板两年定期开放混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>21.08</t>
+          <t>89.25</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0566</t>
+          <t>0.1754</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -4816,36 +5010,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007832</t>
+          <t>110012</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票C</t>
+          <t>易方达科汇灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.08</t>
+          <t>79.22</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0362</t>
+          <t>0.1355</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -4854,36 +5048,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007127</t>
+          <t>090016</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博道远航混合C</t>
+          <t>大成消费主题混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.65</t>
+          <t>90.47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0348</t>
+          <t>0.1011</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -4892,36 +5086,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005457</t>
+          <t>519975</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>景顺长城量化小盘股票</t>
+          <t>长信量化中小盘股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0234</t>
+          <t>0.0658</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -4930,36 +5124,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009006</t>
+          <t>460009</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>创金合信鑫祺混合C</t>
+          <t>华泰柏瑞量化先行混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24.84</t>
+          <t>91.02</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0143</t>
+          <t>0.0628</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -4968,36 +5162,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006161</t>
+          <t>000551</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>博道启航混合C</t>
+          <t>信诚幸福消费混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>91.31</t>
+          <t>84.90</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0497</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -5006,36 +5200,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004901</t>
+          <t>003803</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合C</t>
+          <t>华安新丰利灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>21.08</t>
+          <t>21.50</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.0453</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -5044,36 +5238,333 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005404</t>
+          <t>004900</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>创金合信价值红利灵活配置混合C</t>
+          <t>财通资管鑫锐回报混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>36.04</t>
+          <t>33.38</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0373</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
